--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Levy.Spring.020321.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Levy.Spring.020321.xlsx_with_dialog_acts.xlsx
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2299,12 +2299,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2489,12 +2489,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2943,12 +2943,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3171,12 +3171,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3247,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3931,12 +3931,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3969,12 +3969,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4197,12 +4197,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4349,12 +4349,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5413,12 +5413,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5907,12 +5907,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6139,12 +6139,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6215,12 +6215,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6291,12 +6291,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6405,12 +6405,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6671,12 +6671,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6979,12 +6979,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7017,12 +7017,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7169,12 +7169,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7781,12 +7781,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8047,12 +8047,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8121,12 +8121,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8349,12 +8349,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8387,12 +8387,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8615,12 +8615,12 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8805,12 +8805,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9413,12 +9413,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9603,12 +9603,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9641,12 +9641,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9831,12 +9831,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10135,12 +10135,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10249,12 +10249,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10401,12 +10401,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10895,12 +10895,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11617,12 +11617,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12005,12 +12005,12 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12157,12 +12157,12 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12613,12 +12613,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12765,12 +12765,12 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12803,12 +12803,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13373,12 +13373,12 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13981,12 +13981,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14973,12 +14973,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15851,12 +15851,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15927,12 +15927,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15965,12 +15965,12 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16231,12 +16231,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16649,12 +16649,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17641,12 +17641,12 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18059,12 +18059,12 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18705,12 +18705,12 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18781,12 +18781,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19123,12 +19123,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19275,12 +19275,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19503,12 +19503,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19769,12 +19769,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20871,12 +20871,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20947,12 +20947,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21099,12 +21099,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21175,12 +21175,12 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21669,12 +21669,12 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22509,12 +22509,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22775,12 +22775,12 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22813,12 +22813,12 @@
       <c r="H588" t="inlineStr"/>
       <c r="I588" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22889,12 +22889,12 @@
       <c r="H590" t="inlineStr"/>
       <c r="I590" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23193,12 +23193,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23231,12 +23231,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23535,12 +23535,12 @@
       <c r="H607" t="inlineStr"/>
       <c r="I607" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23573,12 +23573,12 @@
       <c r="H608" t="inlineStr"/>
       <c r="I608" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
